--- a/ExcelToCs/配置/其他游戏模式配置表.xlsx
+++ b/ExcelToCs/配置/其他游戏模式配置表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5B55C9-B4BB-475D-8F56-6EC7281DC6EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6E6420-0C07-4ED8-9EA0-CCE3735E02CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -602,7 +602,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="AA7" sqref="AA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/ExcelToCs/配置/其他游戏模式配置表.xlsx
+++ b/ExcelToCs/配置/其他游戏模式配置表.xlsx
@@ -8,33 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Project\Crazy Dave Bad Adventure\ExcelToCs\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6E6420-0C07-4ED8-9EA0-CCE3735E02CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33508086-5ADD-4ED9-B54B-B17164EC856B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#OtherGameModes" sheetId="3" r:id="rId1"/>
+    <sheet name="#OtherGameModeWaves" sheetId="4" r:id="rId2"/>
+    <sheet name="#OtherGameModeWavesParam" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="102">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -271,6 +264,161 @@
   </si>
   <si>
     <t>生存模式：戴夫/r/n无限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>僵尸种类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        Normal,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Cone,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Bucket,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Screendoor,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Flag,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Football,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Paper,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Polevaulter,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Balloon,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Zamboni,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Catapult,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Gargantuan,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Boss,</t>
+  </si>
+  <si>
+    <t>每次生成数量，三个阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成间隔时间，三个阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一只生成时间(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zombieType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>generateCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intervalTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstGenerateTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2|3|4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4|3|2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4|2.8|1.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引id，对应OtherGameModes的id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gameModeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waveTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过关时间，单位s,0为无限时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enhanceTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多少s增加僵尸,0不增强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dropProps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dropPlants</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可掉落物品,空为不掉落，all为全部掉落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可掉落植物卡片，空为不掉落，all为全部掉落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开局携带的物品，空为不携带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡槽携带的植物，空为不携带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startPlants</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startProps</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -294,12 +442,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -314,11 +468,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -601,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50CE0C96-C1D0-4595-BC66-0A3EB37B69A6}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA7" sqref="AA7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1233,4 +1388,461 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F0BBB5-80F1-4D6F-9D53-D3C5098A9E9E}">
+  <dimension ref="A1:AA37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.625" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="11.25" customWidth="1"/>
+    <col min="5" max="5" width="9.75" customWidth="1"/>
+    <col min="6" max="6" width="9.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1001</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>1001</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="22:27" x14ac:dyDescent="0.2">
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+    </row>
+    <row r="18" spans="22:27" x14ac:dyDescent="0.2">
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+    </row>
+    <row r="19" spans="22:27" x14ac:dyDescent="0.2">
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+    </row>
+    <row r="20" spans="22:27" x14ac:dyDescent="0.2">
+      <c r="V20" s="2"/>
+      <c r="W20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+    </row>
+    <row r="21" spans="22:27" x14ac:dyDescent="0.2">
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+    </row>
+    <row r="22" spans="22:27" x14ac:dyDescent="0.2">
+      <c r="V22" s="2"/>
+      <c r="W22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+    </row>
+    <row r="23" spans="22:27" x14ac:dyDescent="0.2">
+      <c r="V23" s="2"/>
+      <c r="W23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+    </row>
+    <row r="24" spans="22:27" x14ac:dyDescent="0.2">
+      <c r="V24" s="2"/>
+      <c r="W24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+    </row>
+    <row r="25" spans="22:27" x14ac:dyDescent="0.2">
+      <c r="V25" s="2"/>
+      <c r="W25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+    </row>
+    <row r="26" spans="22:27" x14ac:dyDescent="0.2">
+      <c r="V26" s="2"/>
+      <c r="W26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+    </row>
+    <row r="27" spans="22:27" x14ac:dyDescent="0.2">
+      <c r="V27" s="2"/>
+      <c r="W27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+    </row>
+    <row r="28" spans="22:27" x14ac:dyDescent="0.2">
+      <c r="V28" s="2"/>
+      <c r="W28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2">
+        <v>6</v>
+      </c>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+    </row>
+    <row r="29" spans="22:27" x14ac:dyDescent="0.2">
+      <c r="V29" s="2"/>
+      <c r="W29" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2">
+        <v>7</v>
+      </c>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+    </row>
+    <row r="30" spans="22:27" x14ac:dyDescent="0.2">
+      <c r="V30" s="2"/>
+      <c r="W30" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2">
+        <v>8</v>
+      </c>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+    </row>
+    <row r="31" spans="22:27" x14ac:dyDescent="0.2">
+      <c r="V31" s="2"/>
+      <c r="W31" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2">
+        <v>9</v>
+      </c>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
+    </row>
+    <row r="32" spans="22:27" x14ac:dyDescent="0.2">
+      <c r="V32" s="2"/>
+      <c r="W32" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2">
+        <v>10</v>
+      </c>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
+    </row>
+    <row r="33" spans="22:27" x14ac:dyDescent="0.2">
+      <c r="V33" s="2"/>
+      <c r="W33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2">
+        <v>11</v>
+      </c>
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
+    </row>
+    <row r="34" spans="22:27" x14ac:dyDescent="0.2">
+      <c r="V34" s="2"/>
+      <c r="W34" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2">
+        <v>12</v>
+      </c>
+      <c r="Z34" s="2"/>
+      <c r="AA34" s="2"/>
+    </row>
+    <row r="35" spans="22:27" x14ac:dyDescent="0.2">
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="2"/>
+    </row>
+    <row r="36" spans="22:27" x14ac:dyDescent="0.2">
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
+      <c r="AA36" s="2"/>
+    </row>
+    <row r="37" spans="22:27" x14ac:dyDescent="0.2">
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2"/>
+      <c r="AA37" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F54EE175-2A1B-4B47-A553-11A985ADEF2F}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1001</v>
+      </c>
+      <c r="C4">
+        <v>300</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>